--- a/plans/30_day_easy_dsa_schedule.xlsx
+++ b/plans/30_day_easy_dsa_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/code/2_dsa/plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D789CEE-3C35-B446-8055-E9B8A80FB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BFA40-E4DF-7743-8D0A-817F481A17E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{28D46363-2EB7-6B4C-B566-6834E9168DA2}"/>
+    <workbookView xWindow="20" yWindow="900" windowWidth="41080" windowHeight="25000" xr2:uid="{28D46363-2EB7-6B4C-B566-6834E9168DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="30_day_easy_dsa_schedule" sheetId="1" r:id="rId1"/>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19934A83-E769-3548-A995-0EF156AD5344}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="156" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,13 +1302,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/plans/30_day_easy_dsa_schedule.xlsx
+++ b/plans/30_day_easy_dsa_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/code/2_dsa/plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BFA40-E4DF-7743-8D0A-817F481A17E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3CC06-886A-1D45-9E55-DC9CBD5D8546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="900" windowWidth="41080" windowHeight="25000" xr2:uid="{28D46363-2EB7-6B4C-B566-6834E9168DA2}"/>
   </bookViews>
@@ -1490,13 +1490,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
